--- a/data/income_statement/2digits/size/55_IS_SMALL.xlsx
+++ b/data/income_statement/2digits/size/55_IS_SMALL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>55-Accommodation</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>55-Accommodation</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,872 +841,987 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>1505358.71185</v>
+        <v>1861522.57805</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>1662494.81794</v>
+        <v>2076905.46067</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>1945917.65965</v>
+        <v>2538768.86479</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>2071008.30274</v>
+        <v>2700257.82957</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>2737618.64738</v>
+        <v>3356085.17044</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>3203127.993629999</v>
+        <v>3999411.64034</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>3270234.11604</v>
+        <v>4353552.23868</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>3031354.599270001</v>
+        <v>4028973.94129</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>3856047.05477</v>
+        <v>5169907.711610001</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>6484806.800869999</v>
+        <v>7254244.200669999</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>7807718.87557</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>8989711.166479999</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>6242671.641</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>1420097.1127</v>
+        <v>1739451.88042</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>1576656.0903</v>
+        <v>1951028.08937</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>1870442.61582</v>
+        <v>2420501.42178</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>1978984.98593</v>
+        <v>2555889.53134</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>2567316.76298</v>
+        <v>3128008.13935</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>3077938.82201</v>
+        <v>3804597.56002</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>3098601.06071</v>
+        <v>4066952.87878</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>2876646.97314</v>
+        <v>3773737.77917</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>3635794.17016</v>
+        <v>4820986.479739999</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>6112874.530569999</v>
+        <v>6818407.432159999</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>7300774.70571</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>8336569.930780001</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>5764208.222</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>47709.60011</v>
+        <v>56704.26872</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>48830.28933000001</v>
+        <v>60704.32042000001</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>31981.54568</v>
+        <v>34195.60021</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>36185.34351</v>
+        <v>43270.9789</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>79279.62548999999</v>
+        <v>92808.57292000001</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>40289.02443</v>
+        <v>56403.97553</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>68845.67767999999</v>
+        <v>86995.14429000001</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>35192.03705000001</v>
+        <v>54805.99823</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>69885.21385000001</v>
+        <v>85943.58867</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>76548.11828</v>
+        <v>89400.58087000001</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>133622.53122</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>176588.95722</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>92814.374</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>37551.99904</v>
+        <v>65366.42891</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>37008.43831000001</v>
+        <v>65173.05088</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>43493.49815</v>
+        <v>84071.84280000001</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>55837.9733</v>
+        <v>101097.31933</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>91022.25891</v>
+        <v>135268.45817</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>84900.14719</v>
+        <v>138410.10479</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>102787.37765</v>
+        <v>199604.21561</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>119515.58908</v>
+        <v>200430.16389</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>150367.67076</v>
+        <v>262977.6432</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>295384.15202</v>
+        <v>346436.18764</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>373321.63864</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>476552.27848</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>385649.045</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>8376.288770000001</v>
+        <v>11192.77716</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>12929.15601</v>
+        <v>14014.85345</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>7977.155940000001</v>
+        <v>10592.16379</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>9352.615</v>
+        <v>12323.48918</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>13307.56795</v>
+        <v>19032.5576</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>18991.88405</v>
+        <v>22980.65936</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>12744.19472</v>
+        <v>20895.02414</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>18045.3586</v>
+        <v>28508.69926</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>12693.42771</v>
+        <v>26949.37691</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>36120.53854</v>
+        <v>38402.239</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>38880.17407</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>53537.36681</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>111758.675</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>6263.568220000001</v>
+        <v>8312.70968</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>8511.013140000001</v>
+        <v>9283.01161</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>6453.966949999999</v>
+        <v>7951.57401</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>8332.275229999999</v>
+        <v>10320.73898</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>9468.8613</v>
+        <v>14586.6282</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>14518.10988</v>
+        <v>17845.75057</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>10821.79978</v>
+        <v>16078.40374</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>16607.53656</v>
+        <v>23644.80154</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>10959.3595</v>
+        <v>20468.31163</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>30199.9344</v>
+        <v>32252.48802</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>28864.77209</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>40985.63254999999</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>89810.80499999999</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>1903.87761</v>
+        <v>2524.12913</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>2782.76814</v>
+        <v>3059.42501</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>799.73856</v>
+        <v>1933.01952</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>438.8707199999999</v>
+        <v>1132.00695</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>3424.57141</v>
+        <v>3949.34546</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>3818.71895</v>
+        <v>4335.43682</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>1280.21085</v>
+        <v>2594.034</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>830.5134600000001</v>
+        <v>2368.46417</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>1347.93254</v>
+        <v>3111.62048</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>3647.23331</v>
+        <v>3910.33026</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>3581.17349</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>5720.67695</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>15152.192</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>208.84294</v>
+        <v>355.93835</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>1635.37473</v>
+        <v>1672.41683</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>723.4504300000001</v>
+        <v>707.57026</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>581.46905</v>
+        <v>870.74325</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>414.13524</v>
+        <v>496.58394</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>655.05522</v>
+        <v>799.4719699999999</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>642.18409</v>
+        <v>2222.5864</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>607.30858</v>
+        <v>2495.43355</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>386.13567</v>
+        <v>3369.4448</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>2273.37083</v>
+        <v>2239.42072</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>6434.22849</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>6831.05731</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>6795.678</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>1496982.42308</v>
+        <v>1850329.80089</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>1649565.66193</v>
+        <v>2062890.60722</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>1937940.50371</v>
+        <v>2528176.700999999</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>2061655.68774</v>
+        <v>2687934.34039</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>2724311.07943</v>
+        <v>3337052.61284</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>3184136.10958</v>
+        <v>3976430.98098</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>3257489.92132</v>
+        <v>4332657.21454</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>3013309.24067</v>
+        <v>4000465.24203</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>3843353.62706</v>
+        <v>5142958.3347</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>6448686.262329999</v>
+        <v>7215841.96167</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>7768838.7015</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>8936173.79967</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>6130912.966</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>1093619.98285</v>
+        <v>1300592.84718</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>1224505.16425</v>
+        <v>1479717.56923</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>1395449.10757</v>
+        <v>1739741.67079</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>1527270.08087</v>
+        <v>1936686.21093</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>2022695.41265</v>
+        <v>2389496.38135</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>2376123.39381</v>
+        <v>2861049.34088</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>2504113.78282</v>
+        <v>3209480.65325</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>2497090.8056</v>
+        <v>3268081.39142</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>2978392.54527</v>
+        <v>3855469.49754</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>4449650.39861</v>
+        <v>4762161.426100001</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>5599831.864150001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>6206772.93468</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>4725001.794</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>46430.29094</v>
+        <v>50861.76104</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>55403.73866999999</v>
+        <v>61481.81236999999</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>63005.68349</v>
+        <v>74916.91978</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>56821.86315999999</v>
+        <v>68063.40969</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>81398.20894999999</v>
+        <v>105802.71883</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>86884.56921</v>
+        <v>111254.71733</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>107237.61009</v>
+        <v>134578.36694</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>108501.80967</v>
+        <v>146963.41912</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>167801.10372</v>
+        <v>200839.43488</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>223830.13647</v>
+        <v>251380.0473</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>244068.94977</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>289240.45991</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>278707.67</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>133253.87631</v>
+        <v>149123.38977</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>124848.04276</v>
+        <v>136456.80556</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>191192.70086</v>
+        <v>211699.94296</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>198307.80211</v>
+        <v>220221.28782</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>203692.63097</v>
+        <v>226783.1599</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>246302.8419</v>
+        <v>276282.73643</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>231583.36637</v>
+        <v>270074.54893</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>302541.6326599999</v>
+        <v>334121.50962</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>417481.64459</v>
+        <v>482598.29661</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>434426.77989</v>
+        <v>427697.64883</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>688067.9808699999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>743374.00583</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>718623.245</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>910428.6629599999</v>
+        <v>1096912.43985</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>1041588.47563</v>
+        <v>1277702.66636</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>1132140.46582</v>
+        <v>1441625.45695</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>1259764.23105</v>
+        <v>1631407.41631</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>1728819.35443</v>
+        <v>2044068.21718</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>2030550.49095</v>
+        <v>2448195.17746</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>2145954.53694</v>
+        <v>2765874.34959</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>2071842.82887</v>
+        <v>2759559.22158</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>2366763.6892</v>
+        <v>3140224.12336</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>3760468.93599</v>
+        <v>4056406.73208</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>4590902.61578</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>5098144.299849999</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>3661202.53</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>3507.15264</v>
+        <v>3695.25652</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>2664.90719</v>
+        <v>4076.28494</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>9110.257400000002</v>
+        <v>11499.3511</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>12376.18455</v>
+        <v>16994.09711</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>8785.218299999999</v>
+        <v>12842.28544</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>12385.49175</v>
+        <v>25316.70966</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>19338.26942</v>
+        <v>38953.38779</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>14204.5344</v>
+        <v>27437.2411</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>26346.10776</v>
+        <v>31807.64269</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>30924.54626</v>
+        <v>26676.99789</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>76792.31773000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>76014.16909</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>66468.349</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>403362.4402299999</v>
+        <v>549736.95371</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>425060.49768</v>
+        <v>583173.03799</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>542491.39614</v>
+        <v>788435.0302099999</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>534385.60687</v>
+        <v>751248.1294600001</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>701615.66678</v>
+        <v>947556.23149</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>808012.71577</v>
+        <v>1115381.6401</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>753376.1384999999</v>
+        <v>1123176.56129</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>516218.43507</v>
+        <v>732383.85061</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>864961.08179</v>
+        <v>1287488.83716</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>1999035.86372</v>
+        <v>2453680.53557</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>2169006.83735</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>2729400.86499</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>1405911.172</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>294991.5449700001</v>
+        <v>408647.2590499999</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>322006.3523200001</v>
+        <v>452316.46133</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>384452.3949600001</v>
+        <v>536726.03504</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>429798.1981</v>
+        <v>581873.06442</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>552481.0990599999</v>
+        <v>738980.4117899999</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>644506.9101999999</v>
+        <v>938478.39295</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>668712.2837099999</v>
+        <v>959236.57163</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>709517.38663</v>
+        <v>1030959.54821</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>780073.99725</v>
+        <v>1132894.87151</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>1257510.89923</v>
+        <v>1474169.05375</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>1441069.50644</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1721182.10334</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>1633137.092</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>61.12889</v>
+        <v>54.7976</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>272.30506</v>
+        <v>262.2988</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>254.78278</v>
+        <v>251.27488</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>271.20909</v>
+        <v>228.60573</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>300.33237</v>
+        <v>298.85138</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>24.31069</v>
+        <v>29.21549</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>17.38025</v>
+        <v>24.65797</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>1001.47247</v>
+        <v>102.51026</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>189.28416</v>
+        <v>147.57544</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>2924.11975</v>
+        <v>1902.68136</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>1134.55662</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1129.94679</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>1457.154</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>21462.23614</v>
+        <v>28661.30721</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>26297.62868</v>
+        <v>42239.58205</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>34089.75964</v>
+        <v>50087.96274</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>36068.81833000001</v>
+        <v>48804.13743</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>53409.12938999999</v>
+        <v>67047.86869</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>56881.03726999999</v>
+        <v>73851.21919999999</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>56718.25013</v>
+        <v>80443.99343</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>54687.14528</v>
+        <v>72328.43712999999</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>65605.52515999999</v>
+        <v>85302.53608000001</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>150855.63918</v>
+        <v>162986.82789</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>127098.72745</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>148585.3619</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>138815.838</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>273468.17994</v>
+        <v>379931.15424</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>295436.41858</v>
+        <v>409814.5804799999</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>350107.8525399999</v>
+        <v>486386.79742</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>393458.17068</v>
+        <v>532840.32126</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>498771.6372999999</v>
+        <v>671633.69172</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>587601.56224</v>
+        <v>864597.95826</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>611976.6533299999</v>
+        <v>878767.92023</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>653828.7688799999</v>
+        <v>958528.6008199999</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>714279.1879299998</v>
+        <v>1047444.75999</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>1103731.1403</v>
+        <v>1309279.5445</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>1312836.22237</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1571466.79465</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>1492864.1</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>108370.89526</v>
+        <v>141089.69466</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>103054.14536</v>
+        <v>130856.57666</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>158039.00118</v>
+        <v>251708.99517</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>104587.40877</v>
+        <v>169375.06504</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>149134.56772</v>
+        <v>208575.8197</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>163505.80557</v>
+        <v>176903.24715</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>84663.85479</v>
+        <v>163939.98966</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>-193298.95156</v>
+        <v>-298575.6976</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>84887.08454000001</v>
+        <v>154593.96565</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>741524.96449</v>
+        <v>979511.48182</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>727937.3309099999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1008218.76165</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>-227225.92</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>45586.83547000001</v>
+        <v>148727.35948</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>51963.04743000001</v>
+        <v>122237.3048</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>60420.52045</v>
+        <v>171684.57403</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>54387.41754000001</v>
+        <v>158437.21391</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>100316.68732</v>
+        <v>262915.51701</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>121014.46326</v>
+        <v>527183.1059699999</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>149864.33097</v>
+        <v>806252.32789</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>125068.04793</v>
+        <v>631240.8361999999</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>154399.8813</v>
+        <v>525185.43989</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>727788.48534</v>
+        <v>1521609.61229</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>376607.0187</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>678116.5064900001</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>1410708.031</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>966.7718199999999</v>
+        <v>2267.82173</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>388.07576</v>
+        <v>970.35948</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>1736.15331</v>
+        <v>3951.268</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>1472.54916</v>
+        <v>972.2668299999999</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>2097.59121</v>
+        <v>31327.26508</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>1502.94638</v>
+        <v>1654.46009</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>2370.8791</v>
+        <v>2766.99897</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>5249.54448</v>
+        <v>3572.04625</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>3448.47424</v>
+        <v>10768.67175</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>4353.231519999999</v>
+        <v>7105.84307</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>11925.57346</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>22476.81639</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>997.299</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>90.15525</v>
@@ -1817,1201 +1833,1354 @@
         <v>5.55251</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>143.08956</v>
+        <v>6142.40415</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>10.52371</v>
+        <v>7603.18112</v>
       </c>
       <c r="H27" s="48" t="n">
+        <v>6346.09737</v>
+      </c>
+      <c r="I27" s="48" t="n">
+        <v>241.31413</v>
+      </c>
+      <c r="J27" s="48" t="n">
+        <v>6331.779030000001</v>
+      </c>
+      <c r="K27" s="48" t="n">
+        <v>3952.84842</v>
+      </c>
+      <c r="L27" s="48" t="n">
+        <v>7000</v>
+      </c>
+      <c r="M27" s="48" t="n">
+        <v>10150.97331</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>2054.554</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="9" t="n"/>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
+      </c>
+      <c r="C28" s="48" t="n">
+        <v>13721.44919</v>
+      </c>
+      <c r="D28" s="48" t="n">
+        <v>11698.99681</v>
+      </c>
+      <c r="E28" s="48" t="n">
+        <v>19160.28486</v>
+      </c>
+      <c r="F28" s="48" t="n">
+        <v>25038.88312</v>
+      </c>
+      <c r="G28" s="48" t="n">
+        <v>28277.11288</v>
+      </c>
+      <c r="H28" s="48" t="n">
+        <v>57368.02092</v>
+      </c>
+      <c r="I28" s="48" t="n">
+        <v>96606.62862999999</v>
+      </c>
+      <c r="J28" s="48" t="n">
+        <v>76179.94068000001</v>
+      </c>
+      <c r="K28" s="48" t="n">
+        <v>64194.08608</v>
+      </c>
+      <c r="L28" s="48" t="n">
+        <v>141419.27312</v>
+      </c>
+      <c r="M28" s="48" t="n">
+        <v>162034.66392</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>172118.84</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="9" t="n"/>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
+      </c>
+      <c r="C29" s="48" t="n">
+        <v>662.87336</v>
+      </c>
+      <c r="D29" s="48" t="n">
+        <v>931.93089</v>
+      </c>
+      <c r="E29" s="48" t="n">
+        <v>2627.73543</v>
+      </c>
+      <c r="F29" s="48" t="n">
+        <v>1381.41684</v>
+      </c>
+      <c r="G29" s="48" t="n">
+        <v>637.42456</v>
+      </c>
+      <c r="H29" s="48" t="n">
+        <v>122.98624</v>
+      </c>
+      <c r="I29" s="48" t="n">
+        <v>931.9887199999999</v>
+      </c>
+      <c r="J29" s="48" t="n">
+        <v>2230.38593</v>
+      </c>
+      <c r="K29" s="48" t="n">
+        <v>663.32716</v>
+      </c>
+      <c r="L29" s="48" t="n">
+        <v>12827.19327</v>
+      </c>
+      <c r="M29" s="48" t="n">
+        <v>4375.53433</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>5908.497</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="9" t="n"/>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
+      </c>
+      <c r="C30" s="48" t="n">
+        <v>33472.42353</v>
+      </c>
+      <c r="D30" s="48" t="n">
+        <v>242.82733</v>
+      </c>
+      <c r="E30" s="48" t="n">
+        <v>7222.523939999999</v>
+      </c>
+      <c r="F30" s="48" t="n">
+        <v>7878.29131</v>
+      </c>
+      <c r="G30" s="48" t="n">
+        <v>4824.335980000001</v>
+      </c>
+      <c r="H30" s="48" t="n">
+        <v>413.47443</v>
+      </c>
+      <c r="I30" s="48" t="n">
+        <v>2060.76397</v>
+      </c>
+      <c r="J30" s="48" t="n">
+        <v>2327.39502</v>
+      </c>
+      <c r="K30" s="48" t="n">
+        <v>1840.82988</v>
+      </c>
+      <c r="L30" s="48" t="n">
+        <v>710.2568299999999</v>
+      </c>
+      <c r="M30" s="48" t="n">
+        <v>1951.03224</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>1154.872</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="9" t="n"/>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
+      </c>
+      <c r="C31" s="48" t="n">
+        <v>1076.1193</v>
+      </c>
+      <c r="D31" s="48" t="n">
+        <v>344.81884</v>
+      </c>
+      <c r="E31" s="48" t="n">
+        <v>5175.3347</v>
+      </c>
+      <c r="F31" s="48" t="n">
+        <v>1628.81731</v>
+      </c>
+      <c r="G31" s="48" t="n">
+        <v>1157.98031</v>
+      </c>
+      <c r="H31" s="48" t="n">
+        <v>225190.01298</v>
+      </c>
+      <c r="I31" s="48" t="n">
+        <v>142992.0385</v>
+      </c>
+      <c r="J31" s="48" t="n">
+        <v>96097.16054</v>
+      </c>
+      <c r="K31" s="48" t="n">
+        <v>21218.51286</v>
+      </c>
+      <c r="L31" s="48" t="n">
+        <v>13744.14054</v>
+      </c>
+      <c r="M31" s="48" t="n">
+        <v>10435.75235</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>36236.4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="9" t="n"/>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
+      </c>
+      <c r="C32" s="48" t="n">
+        <v>57774.58148</v>
+      </c>
+      <c r="D32" s="48" t="n">
+        <v>75630.48752000001</v>
+      </c>
+      <c r="E32" s="48" t="n">
+        <v>99916.93477000001</v>
+      </c>
+      <c r="F32" s="48" t="n">
+        <v>66889.29401000001</v>
+      </c>
+      <c r="G32" s="48" t="n">
+        <v>127915.9855</v>
+      </c>
+      <c r="H32" s="48" t="n">
+        <v>164125.34299</v>
+      </c>
+      <c r="I32" s="48" t="n">
+        <v>463748.62111</v>
+      </c>
+      <c r="J32" s="48" t="n">
+        <v>370463.11169</v>
+      </c>
+      <c r="K32" s="48" t="n">
+        <v>350729.7546099999</v>
+      </c>
+      <c r="L32" s="48" t="n">
+        <v>1243797.73756</v>
+      </c>
+      <c r="M32" s="48" t="n">
+        <v>358819.89114</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>1038762.013</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="9" t="n"/>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
+      </c>
+      <c r="C33" s="48" t="n">
+        <v>865.47658</v>
+      </c>
+      <c r="D33" s="48" t="n">
+        <v>212.70248</v>
+      </c>
+      <c r="E33" s="48" t="n">
+        <v>129.5026</v>
+      </c>
+      <c r="F33" s="48" t="n">
+        <v>102.78356</v>
+      </c>
+      <c r="G33" s="48" t="n">
+        <v>20.56951</v>
+      </c>
+      <c r="H33" s="48" t="n">
+        <v>1258.22025</v>
+      </c>
+      <c r="I33" s="48" t="n">
+        <v>355.59431</v>
+      </c>
+      <c r="J33" s="48" t="n">
+        <v>238.79304</v>
+      </c>
+      <c r="K33" s="48" t="n">
+        <v>40.92252000000001</v>
+      </c>
+      <c r="L33" s="48" t="n">
+        <v>8.26778</v>
+      </c>
+      <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-      <c r="I27" s="48" t="n">
-        <v>8370.579530000001</v>
-      </c>
-      <c r="J27" s="48" t="n">
-        <v>452.42697</v>
-      </c>
-      <c r="K27" s="48" t="n">
-        <v>152.27483</v>
-      </c>
-      <c r="L27" s="48" t="n">
+      <c r="N33" s="48" t="n">
         <v>0</v>
       </c>
-      <c r="M27" s="48" t="n">
-        <v>605.09591</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" s="48" t="n">
-        <v>8334.374239999999</v>
-      </c>
-      <c r="D28" s="48" t="n">
-        <v>6547.803150000001</v>
-      </c>
-      <c r="E28" s="48" t="n">
-        <v>7111.9679</v>
-      </c>
-      <c r="F28" s="48" t="n">
-        <v>9402.134469999999</v>
-      </c>
-      <c r="G28" s="48" t="n">
-        <v>13194.60438</v>
-      </c>
-      <c r="H28" s="48" t="n">
-        <v>14891.46391</v>
-      </c>
-      <c r="I28" s="48" t="n">
-        <v>19043.69212</v>
-      </c>
-      <c r="J28" s="48" t="n">
-        <v>21250.1849</v>
-      </c>
-      <c r="K28" s="48" t="n">
-        <v>23474.82542</v>
-      </c>
-      <c r="L28" s="48" t="n">
-        <v>65152.81932</v>
-      </c>
-      <c r="M28" s="48" t="n">
-        <v>66265.71324</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" s="48" t="n">
-        <v>483.79568</v>
-      </c>
-      <c r="D29" s="48" t="n">
-        <v>462.81946</v>
-      </c>
-      <c r="E29" s="48" t="n">
-        <v>161.77715</v>
-      </c>
-      <c r="F29" s="48" t="n">
-        <v>142.73616</v>
-      </c>
-      <c r="G29" s="48" t="n">
-        <v>587.80082</v>
-      </c>
-      <c r="H29" s="48" t="n">
-        <v>118.18716</v>
-      </c>
-      <c r="I29" s="48" t="n">
-        <v>480.12813</v>
-      </c>
-      <c r="J29" s="48" t="n">
-        <v>1034.78349</v>
-      </c>
-      <c r="K29" s="48" t="n">
-        <v>520.6451099999999</v>
-      </c>
-      <c r="L29" s="48" t="n">
-        <v>596.4877300000001</v>
-      </c>
-      <c r="M29" s="48" t="n">
-        <v>322.75885</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="C30" s="48" t="n">
-        <v>129.74131</v>
-      </c>
-      <c r="D30" s="48" t="n">
-        <v>70.79096000000001</v>
-      </c>
-      <c r="E30" s="48" t="n">
-        <v>45.55086</v>
-      </c>
-      <c r="F30" s="48" t="n">
-        <v>110.30119</v>
-      </c>
-      <c r="G30" s="48" t="n">
-        <v>162.5303</v>
-      </c>
-      <c r="H30" s="48" t="n">
-        <v>178.43926</v>
-      </c>
-      <c r="I30" s="48" t="n">
-        <v>636.24701</v>
-      </c>
-      <c r="J30" s="48" t="n">
-        <v>763.1349799999999</v>
-      </c>
-      <c r="K30" s="48" t="n">
-        <v>985.72302</v>
-      </c>
-      <c r="L30" s="48" t="n">
-        <v>2053.42109</v>
-      </c>
-      <c r="M30" s="48" t="n">
-        <v>1279.51773</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="C31" s="48" t="n">
-        <v>273.6338000000001</v>
-      </c>
-      <c r="D31" s="48" t="n">
-        <v>176.34518</v>
-      </c>
-      <c r="E31" s="48" t="n">
-        <v>1794.13633</v>
-      </c>
-      <c r="F31" s="48" t="n">
-        <v>1655.41084</v>
-      </c>
-      <c r="G31" s="48" t="n">
-        <v>1233.84671</v>
-      </c>
-      <c r="H31" s="48" t="n">
-        <v>735.26629</v>
-      </c>
-      <c r="I31" s="48" t="n">
-        <v>785.32872</v>
-      </c>
-      <c r="J31" s="48" t="n">
-        <v>1412.10323</v>
-      </c>
-      <c r="K31" s="48" t="n">
-        <v>2595.45378</v>
-      </c>
-      <c r="L31" s="48" t="n">
-        <v>4251.30971</v>
-      </c>
-      <c r="M31" s="48" t="n">
-        <v>7902.76883</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="C32" s="48" t="n">
-        <v>14684.81701</v>
-      </c>
-      <c r="D32" s="48" t="n">
-        <v>17347.95629</v>
-      </c>
-      <c r="E32" s="48" t="n">
-        <v>22734.48346</v>
-      </c>
-      <c r="F32" s="48" t="n">
-        <v>15131.98883</v>
-      </c>
-      <c r="G32" s="48" t="n">
-        <v>34790.62891000001</v>
-      </c>
-      <c r="H32" s="48" t="n">
-        <v>45286.78933</v>
-      </c>
-      <c r="I32" s="48" t="n">
-        <v>75290.69648</v>
-      </c>
-      <c r="J32" s="48" t="n">
-        <v>49767.0729</v>
-      </c>
-      <c r="K32" s="48" t="n">
-        <v>70194.70942999999</v>
-      </c>
-      <c r="L32" s="48" t="n">
-        <v>523617.54057</v>
-      </c>
-      <c r="M32" s="48" t="n">
-        <v>168568.66048</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
-      <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="C33" s="48" t="n">
-        <v>252.31864</v>
-      </c>
-      <c r="D33" s="48" t="n">
-        <v>274.40738</v>
-      </c>
-      <c r="E33" s="48" t="n">
-        <v>124.75848</v>
-      </c>
-      <c r="F33" s="48" t="n">
-        <v>127.92337</v>
-      </c>
-      <c r="G33" s="48" t="n">
-        <v>46.87426</v>
-      </c>
-      <c r="H33" s="48" t="n">
-        <v>185.04985</v>
-      </c>
-      <c r="I33" s="48" t="n">
-        <v>9.820470000000002</v>
-      </c>
-      <c r="J33" s="48" t="n">
-        <v>259.79901</v>
-      </c>
-      <c r="K33" s="48" t="n">
-        <v>142.38665</v>
-      </c>
-      <c r="L33" s="48" t="n">
-        <v>135.18549</v>
-      </c>
-      <c r="M33" s="48" t="n">
-        <v>41.38188</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
-        <v>170.12397</v>
+        <v>168.70989</v>
       </c>
       <c r="D34" s="48" t="n">
-        <v>167.58251</v>
+        <v>188.7204</v>
       </c>
       <c r="E34" s="48" t="n">
-        <v>225.09376</v>
+        <v>300.53472</v>
       </c>
       <c r="F34" s="48" t="n">
-        <v>138.09627</v>
+        <v>285.05525</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>317.0253299999999</v>
+        <v>379.26294</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>398.5538700000001</v>
+        <v>191.6355</v>
       </c>
       <c r="I34" s="48" t="n">
-        <v>562.9010999999999</v>
+        <v>463.37473</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>470.94745</v>
+        <v>635.55087</v>
       </c>
       <c r="K34" s="48" t="n">
-        <v>222.04898</v>
+        <v>403.53494</v>
       </c>
       <c r="L34" s="48" t="n">
-        <v>1456.3611</v>
+        <v>1014.19579</v>
       </c>
       <c r="M34" s="48" t="n">
-        <v>299.8754</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>322.20461</v>
+      </c>
+      <c r="N34" s="48" t="n">
+        <v>897.026</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>20201.10375</v>
+        <v>38627.74917</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>26520.36734</v>
+        <v>32009.56165</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>26481.04669</v>
+        <v>33194.9025</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>26063.18769</v>
+        <v>48118.00153</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>47875.26168999999</v>
+        <v>60772.39913000001</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>57717.76721000001</v>
+        <v>70512.85520000001</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>42314.05830999999</v>
+        <v>96085.00482</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>44408.05052</v>
+        <v>73164.67315</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>52663.33983999999</v>
+        <v>71372.95166999999</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>126172.12881</v>
+        <v>93982.70432999999</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>119395.67292</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>107549.6382</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>152578.53</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>26623.12041</v>
+        <v>107868.11458</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>23499.41145</v>
+        <v>70880.12944000002</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>37017.40349</v>
+        <v>253178.6845</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>23122.29674</v>
+        <v>77178.30875999999</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>72249.92993</v>
+        <v>248319.23325</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>68437.08012</v>
+        <v>213644.00591</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>106007.19238</v>
+        <v>625421.9114100001</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>98825.03746999998</v>
+        <v>780486.18224</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>128193.13498</v>
+        <v>583093.69922</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>910774.45285</v>
+        <v>2037844.99278</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>316836.4564399999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>828518.3725300001</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>1615239.685</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>1619.35916</v>
+        <v>2490.60263</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>1734.40858</v>
+        <v>2736.33711</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>3192.12899</v>
+        <v>5054.604350000001</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>5685.58848</v>
+        <v>8471.679769999999</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>7686.35967</v>
+        <v>10601.5457</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>12086.14356</v>
+        <v>14910.64865</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>9681.306339999999</v>
+        <v>15609.92558</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>7807.66685</v>
+        <v>11568.91909</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>7661.865720000001</v>
+        <v>12568.81476</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>22391.53563</v>
+        <v>25358.63925</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>24340.20168</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>29233.49533</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>20845.085</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>3403.55478</v>
+        <v>15196.25198</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>2524.8581</v>
+        <v>3858.40622</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>2376.42786</v>
+        <v>2527.66602</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>1938.11958</v>
+        <v>2555.08222</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>3854.31568</v>
+        <v>3918.40369</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>8771.328150000001</v>
+        <v>16099.51636</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>5738.39074</v>
+        <v>12987.94237</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>5031.3559</v>
+        <v>33573.63718999999</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>8005.97802</v>
+        <v>9604.4431</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>26693.75429</v>
+        <v>9194.599390000001</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>17768.01865</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>66746.59555</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>16982.889</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>29.37907</v>
+        <v>12685.10294</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>92.94050999999999</v>
+        <v>56.86027</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>54.5498</v>
+        <v>3573.27865</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>206.14376</v>
+        <v>4318.32846</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>165.55078</v>
+        <v>466.22926</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>54.512</v>
+        <v>186.02693</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>186.12129</v>
+        <v>1269.32669</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>90.10536</v>
+        <v>624.9814</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>2865.18336</v>
+        <v>3019.09101</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>5.21017</v>
+        <v>6541.17595</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>2177.14516</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>801.73745</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>3246.171</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>15979.77696</v>
+        <v>56933.64535</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>15839.61483</v>
+        <v>59290.19673</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>28192.12463</v>
+        <v>211314.1277</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>11854.73365</v>
+        <v>56191.61457</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>48907.52264</v>
+        <v>221087.75622</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>39298.64781</v>
+        <v>170904.5128</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>74018.16362000001</v>
+        <v>579305.96013</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>75182.42887</v>
+        <v>718347.28614</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>99586.92595999999</v>
+        <v>514725.3621</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>844178.7774299999</v>
+        <v>1983728.35904</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>252036.80838</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>698554.9031100001</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>1494015.995</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>355.42616</v>
+        <v>869.84944</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>278.96768</v>
+        <v>277.87521</v>
       </c>
       <c r="E41" s="48" t="n">
         <v>177.67977</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>132.34383</v>
+        <v>120.24749</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>167.63803</v>
+        <v>290.07905</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>419.57921</v>
+        <v>791.29472</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>58.05929</v>
+        <v>411.12501</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>1473.42289</v>
+        <v>1505.87705</v>
       </c>
       <c r="K41" s="48" t="n">
         <v>22.55022</v>
       </c>
       <c r="L41" s="48" t="n">
+        <v>70.10532000000001</v>
+      </c>
+      <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-      <c r="M41" s="48" t="n">
-        <v>130.71539</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>1821.307</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0.0169</v>
       </c>
       <c r="D42" s="48" t="n">
-        <v>12.42398</v>
+        <v>15.91495</v>
       </c>
       <c r="E42" s="48" t="n">
-        <v>0.8979299999999999</v>
+        <v>0.8979600000000001</v>
       </c>
       <c r="F42" s="48" t="n">
-        <v>8.94624</v>
+        <v>13.54131</v>
       </c>
       <c r="G42" s="48" t="n">
-        <v>0.00122</v>
+        <v>6.29583</v>
       </c>
       <c r="H42" s="48" t="n">
-        <v>39.10289</v>
+        <v>38.26499</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>18.87151</v>
+        <v>127.50485</v>
       </c>
       <c r="J42" s="48" t="n">
-        <v>0.31064</v>
+        <v>0.31111</v>
       </c>
       <c r="K42" s="48" t="n">
-        <v>1.65781</v>
+        <v>1.65825</v>
       </c>
       <c r="L42" s="48" t="n">
-        <v>203.21737</v>
+        <v>0.00446</v>
       </c>
       <c r="M42" s="48" t="n">
-        <v>105.01538</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+        <v>0.01538</v>
+      </c>
+      <c r="N42" s="48" t="n">
+        <v>0.012</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>5235.60738</v>
+        <v>19692.64534</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>3016.19777</v>
+        <v>4644.53895</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>3023.59451</v>
+        <v>30530.43005</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>3296.4212</v>
+        <v>5507.81494</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>11468.54191</v>
+        <v>11948.9235</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>7767.7665</v>
+        <v>10713.74146</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>16306.27959</v>
+        <v>15710.12678</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>9239.746959999999</v>
+        <v>14865.17026</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>10048.97389</v>
+        <v>43151.77978</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>17301.95796</v>
+        <v>12952.10937</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>20278.5518</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>33181.62571</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>78328.226</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>55658.16337</v>
+        <v>108475.73389</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>47391.46177</v>
+        <v>100007.96449</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>56978.51625</v>
+        <v>145103.65402</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>65181.5093</v>
+        <v>141370.32467</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>105431.80467</v>
+        <v>238051.92437</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>117584.9845</v>
+        <v>248400.92303</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>143856.87034</v>
+        <v>377038.59824</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>153478.9395</v>
+        <v>481574.13483</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>178860.26541</v>
+        <v>475138.62827</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>536606.30918</v>
+        <v>835066.72329</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>422382.92549</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>690853.06826</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>1051082.042</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>45202.47074</v>
+        <v>88595.63429999999</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>42216.54310999999</v>
+        <v>87996.13004</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>49736.36606</v>
+        <v>110552.49891</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>59216.57043000001</v>
+        <v>119810.99691</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>93396.84247999999</v>
+        <v>175306.75721</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>106169.54454</v>
+        <v>200567.50107</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>125862.70088</v>
+        <v>293064.49713</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>139352.02047</v>
+        <v>380735.08283</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>161411.40351</v>
+        <v>363484.54753</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>450678.46401</v>
+        <v>515637.33334</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>378409.54853</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>542069.2485099999</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>633512.677</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>10455.69263</v>
+        <v>19880.09959</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>5174.91866</v>
+        <v>12011.83445</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>7242.15019</v>
+        <v>34551.15511</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>5964.93887</v>
+        <v>21559.32776</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>12034.96219</v>
+        <v>62745.16716</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>11415.43996</v>
+        <v>47833.42195999999</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>17994.16946</v>
+        <v>83974.10111</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>14126.91903</v>
+        <v>100839.052</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>17448.8619</v>
+        <v>111654.08074</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>85927.84517</v>
+        <v>319429.38995</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>43973.37696</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>148783.81975</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>417569.365</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>71676.44695000001</v>
+        <v>73473.20567</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>84126.31957000001</v>
+        <v>82205.78753</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>124463.60189</v>
+        <v>25111.23068</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>70671.02026999999</v>
+        <v>109263.64552</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>71769.52043999999</v>
+        <v>-14879.82091000001</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>98498.20421000001</v>
+        <v>242041.42418</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-15335.87696</v>
+        <v>-32268.1921</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-320534.8806</v>
+        <v>-929395.17847</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>-67766.43454999999</v>
+        <v>-378452.92195</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>21932.6878</v>
+        <v>-371790.62196</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>365324.96768</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>166963.82735</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-1482839.616</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>36785.99512000001</v>
+        <v>44502.31172</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>20218.71079</v>
+        <v>40849.24621</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>26572.58394</v>
+        <v>77401.61246999999</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>29099.56649</v>
+        <v>40830.26923</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>44309.33840000001</v>
+        <v>86603.90436999999</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>59942.06584</v>
+        <v>111110.8587</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>64008.52067000001</v>
+        <v>223604.58331</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>77283.95958999998</v>
+        <v>178621.80686</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>115379.8167</v>
+        <v>161792.98388</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>233306.0648</v>
+        <v>181079.71447</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>152606.06406</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>458963.99566</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>237342.723</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>6389.1945</v>
+        <v>9134.970599999999</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>92.48249</v>
+        <v>264.21771</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>259.26919</v>
+        <v>1080.11593</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>271.94783</v>
+        <v>991.3324299999999</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>1000.90761</v>
+        <v>1200.25127</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>710.05662</v>
+        <v>3313.13722</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>617.28004</v>
+        <v>4212.77814</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>591.9492299999999</v>
+        <v>1439.10665</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>2034.31199</v>
+        <v>1316.5696</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>1654.5613</v>
+        <v>1161.14093</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>2160.98561</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>1972.70235</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>11410.434</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>30396.80062</v>
+        <v>35367.34112</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>20126.2283</v>
+        <v>40585.0285</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>26313.31475</v>
+        <v>76321.49654000001</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>28827.61866</v>
+        <v>39838.9368</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>43308.43079</v>
+        <v>85403.65310000001</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>59232.00922</v>
+        <v>107797.72148</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>63391.24062999999</v>
+        <v>219391.80517</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>76692.01036</v>
+        <v>177182.70021</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>113345.50471</v>
+        <v>160476.41428</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>231651.5035</v>
+        <v>179918.57354</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>150445.07845</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>456991.29331</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>225932.289</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>21295.75407</v>
+        <v>51203.36378</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>19128.77089</v>
+        <v>33152.14981</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>193176.767</v>
+        <v>282125.57683</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>27728.33311</v>
+        <v>43725.12482</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>48017.03224</v>
+        <v>64171.68184</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>156461.48744</v>
+        <v>187731.85684</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>62781.48822000001</v>
+        <v>91764.70939</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>198566.08694</v>
+        <v>253826.59163</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>70392.73553000001</v>
+        <v>988617.9918</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>204953.06468</v>
+        <v>201021.7548</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>140420.05705</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>306124.62454</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>233896.876</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>335.47448</v>
+        <v>4739.90811</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>1081.17358</v>
+        <v>4380.49059</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>1405.41314</v>
+        <v>13066.02036</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>886.5598999999999</v>
+        <v>2235.21942</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>1800.56106</v>
+        <v>2715.35592</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>1111.48477</v>
+        <v>1953.95947</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>1808.39178</v>
+        <v>2681.61357</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>3763.75489</v>
+        <v>6415.35882</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>2795.22297</v>
+        <v>3549.08152</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>4503.64679</v>
+        <v>3927.09271</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>3071.67909</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>3847.37328</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>27550.428</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>2623.93946</v>
+        <v>5878.99397</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>1262.25174</v>
+        <v>1775.44362</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>1863.30075</v>
+        <v>3803.55901</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>1362.18891</v>
+        <v>2264.55544</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>9989.155429999997</v>
+        <v>12707.80626</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>4145.41481</v>
+        <v>8913.19823</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>3959.43273</v>
+        <v>4392.90142</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>5762.520759999999</v>
+        <v>5781.265619999999</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>4521.87209</v>
+        <v>5212.714609999999</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>6365.61947</v>
+        <v>7519.8853</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>39635.42397</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>161529.37622</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>9593.15</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>18336.34013</v>
+        <v>40584.46169999999</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>16785.34557</v>
+        <v>26996.2156</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>189908.05311</v>
+        <v>265255.99746</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>25479.5843</v>
+        <v>39225.34996000001</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>36227.31575</v>
+        <v>48748.51966</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>151204.58786</v>
+        <v>176864.69914</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>57013.66371</v>
+        <v>84690.19440000001</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>189039.81129</v>
+        <v>241629.96719</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>63075.64047</v>
+        <v>979856.19567</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>194083.79842</v>
+        <v>189574.77679</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>97712.95398999999</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>140747.87504</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>196753.298</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>87166.68800000001</v>
+        <v>66772.15361000001</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>85216.25947</v>
+        <v>89902.88393</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-42140.58117</v>
+        <v>-179612.73368</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>72042.25364999998</v>
+        <v>106368.78993</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>68061.8266</v>
+        <v>7552.401620000001</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>1978.78261</v>
+        <v>165420.42604</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-14108.84451</v>
+        <v>99571.68182</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-441817.00795</v>
+        <v>-1004599.96324</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>-22779.35338</v>
+        <v>-1205277.92987</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>50285.68792</v>
+        <v>-391732.66229</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>377510.97469</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>319803.1984699999</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-1479393.769</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>22678.24251</v>
+        <v>27663.56778</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>23241.91977</v>
+        <v>29374.57854</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>32902.89436999999</v>
+        <v>44479.40813999999</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>26381.42806</v>
+        <v>38333.39446000001</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>37691.73693</v>
+        <v>49348.53432</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>42562.51115000001</v>
+        <v>59972.40808</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>39097.88034</v>
+        <v>60595.42182</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>23611.66255</v>
+        <v>36103.6864</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>34692.62459</v>
+        <v>48116.66362000001</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>116490.44096</v>
+        <v>119867.08281</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>131013.87058</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>165260.16357</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>109914.673</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>64488.44549000001</v>
+        <v>39108.58583</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>61974.3397</v>
+        <v>60528.30539</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-75043.47554</v>
+        <v>-224092.14182</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>45660.82559</v>
+        <v>68035.39547</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>30370.08967</v>
+        <v>-41796.1327</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-40583.72854</v>
+        <v>105448.01796</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-53206.72484999999</v>
+        <v>38976.26</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-465428.6705</v>
+        <v>-1040703.64964</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-57471.97797000001</v>
+        <v>-1253394.59349</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-66204.75304000001</v>
+        <v>-511599.7450999999</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>246497.10411</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>154543.0349</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-1589308.442</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>1696</v>
+        <v>1558</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>1851</v>
+        <v>1661</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>1977</v>
+        <v>1846</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>2145</v>
+        <v>1975</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>2559</v>
+        <v>2127</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>2802</v>
+        <v>2329</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>2929</v>
+        <v>2494</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>3047</v>
+        <v>2397</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>3116</v>
+        <v>2434</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>2812</v>
+        <v>2283</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>2912</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>2383</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>2251</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>